--- a/DataSet/BALEPALLI 4C3H5J2g.xlsx
+++ b/DataSet/BALEPALLI 4C3H5J2g.xlsx
@@ -1,15 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BALEPALLI" sheetId="1" r:id="rId1"/>
-    <sheet name="REPEATATION" sheetId="2" r:id="rId2"/>
-    <sheet name="FINAL" sheetId="3" r:id="rId3"/>
+    <sheet name="FINAL" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -155,7 +154,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -228,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -278,9 +277,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -562,7 +558,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -572,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -615,62 +611,62 @@
       <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22" t="s">
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="22"/>
+      <c r="N1" s="21"/>
       <c r="O1" s="10"/>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22" t="s">
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="22"/>
+      <c r="S1" s="21"/>
       <c r="T1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
-      <c r="X1" s="22" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22" t="s">
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AA1" s="22"/>
-      <c r="AB1" s="22" t="s">
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="22"/>
-      <c r="AD1" s="22" t="s">
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22" t="s">
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="22"/>
+      <c r="AG1" s="21"/>
     </row>
     <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B2" s="8"/>
@@ -4952,7 +4948,7 @@
         <f t="shared" si="18"/>
         <v>22.5</v>
       </c>
-      <c r="R57" s="20">
+      <c r="R57" s="19">
         <v>3.8</v>
       </c>
       <c r="S57" s="1">
@@ -5025,72 +5021,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F1:K13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="14.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="K1" s="19"/>
-    </row>
-    <row r="2" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="6:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="8" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F9" s="14"/>
-    </row>
-    <row r="10" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F10" s="14"/>
-    </row>
-    <row r="11" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F13" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5293,10 +5227,10 @@
         <v>0.69011999999999984</v>
       </c>
       <c r="P4" s="17"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
       <c r="U4" s="17"/>
       <c r="V4" s="17"/>
       <c r="W4" s="17"/>
